--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927113.5585456557</v>
+        <v>925225.9770292533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49.72959917530118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>106.7209824064456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>303.82117507288</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>247.4073273774619</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>14.82811972447736</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>174.2425642047091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>298.3540381929898</v>
       </c>
     </row>
     <row r="9">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.00429467105812</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>56.49576810820454</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.35146980185843</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.16301885440525</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>48.52367933248138</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185831</v>
       </c>
     </row>
     <row r="17">
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>58.2907034175953</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29.1893754712104</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>122.313709559931</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211458</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.6571329437493</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>135.5166535630856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>45.40012322653648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>183.625740741488</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789634</v>
+        <v>80.78193823789636</v>
       </c>
       <c r="I34" t="n">
         <v>42.2873553346313</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430.355453824634</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.392936884222</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D2" t="n">
-        <v>1061.392936884222</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E2" t="n">
-        <v>675.604684285978</v>
+        <v>586.651262799104</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>175.6653580094964</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.084661047914</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.084661047914</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="D5" t="n">
-        <v>771.8189624411639</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>771.8189624411639</v>
+        <v>728.7586819617466</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8330576515563</v>
+        <v>721.8131812125431</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>303.84937311073</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023726</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.084661047914</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.090004781549</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1386.090004781549</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1386.090004781549</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.090004781549</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>717.0135350437492</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>502.7251118619119</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>502.7251118619119</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>111.0094142528943</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>111.0094142528943</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850827</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8933943850827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>294.776754972747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655734</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286129</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286129</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850827</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>154.3878371814097</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609663</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609663</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>696.5850465240057</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.7924673804756</v>
+        <v>97.2170914602861</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5555,7 +5555,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>920.3704617345001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>751.4342788065932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>601.3176393942574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>453.4045458118643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>306.5145983139539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345001</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617345001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.3704617345001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1375.367068982214</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1086.238430195772</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>831.5539419898856</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>542.1367719529251</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>542.1367719529251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,13 +6260,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570741</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.9755066752118</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>339.8001890286758</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8001890286758</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276535</v>
+        <v>234.2048840066602</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>143.0758017901207</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.779810458476</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>916.1235057028863</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>743.8948200862399</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.8631062240806</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>157.2587625717278</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737876</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6926,10 +6926,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7175,13 +7175,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494605</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.83804904622848</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735874</v>
+        <v>272.8719470256808</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.2863157167186</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>18.73797368291348</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>85.30006332127829</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967694</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>96.27094379216392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>118.7231417661465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502365</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2028650457823</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>99.23385149845831</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338537</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.9275204083455</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>90.1930018259516</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>65.89018860828402</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13.3086459537828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-9.237055564881302e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998959.4632405672</v>
+        <v>998959.4632405674</v>
       </c>
     </row>
     <row r="9">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
@@ -26323,13 +26323,13 @@
         <v>391029.0597377088</v>
       </c>
       <c r="F2" t="n">
+        <v>391029.0597377089</v>
+      </c>
+      <c r="G2" t="n">
         <v>391029.0597377088</v>
       </c>
-      <c r="G2" t="n">
-        <v>391029.0597377089</v>
-      </c>
       <c r="H2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="I2" t="n">
         <v>391029.0597377088</v>
@@ -26338,22 +26338,22 @@
         <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452706</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="O2" t="n">
         <v>410520.8849321421</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321421</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321422</v>
-      </c>
       <c r="P2" t="n">
-        <v>410520.8849321421</v>
+        <v>410520.8849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26436,13 +26436,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
@@ -26451,10 +26451,10 @@
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427938.9401323367</v>
+        <v>-427938.9401323368</v>
       </c>
       <c r="C6" t="n">
-        <v>162028.9390822078</v>
+        <v>162028.9390822077</v>
       </c>
       <c r="D6" t="n">
         <v>162028.9390822077</v>
       </c>
       <c r="E6" t="n">
-        <v>-248292.9102747747</v>
+        <v>-248390.3694007468</v>
       </c>
       <c r="F6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="G6" t="n">
-        <v>276867.1262021216</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="H6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="I6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="J6" t="n">
-        <v>100443.9070095286</v>
+        <v>100346.4478835565</v>
       </c>
       <c r="K6" t="n">
-        <v>225692.093411135</v>
+        <v>225673.5996732006</v>
       </c>
       <c r="L6" t="n">
         <v>257869.4774830588</v>
       </c>
       <c r="M6" t="n">
-        <v>133411.3690500883</v>
+        <v>133411.3690500885</v>
       </c>
       <c r="N6" t="n">
+        <v>268212.3842839256</v>
+      </c>
+      <c r="O6" t="n">
         <v>268212.3842839255</v>
       </c>
-      <c r="O6" t="n">
-        <v>268212.3842839256</v>
-      </c>
       <c r="P6" t="n">
-        <v>224049.7789810798</v>
+        <v>224049.77898108</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964069</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>357.1464465664102</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45.21033383841562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.0474423175574</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>109.962994947915</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>76.51544538689529</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.2856835255142</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>271.4537545175004</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6878058675527</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>87.88390046306381</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>135.6608973090997</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>169.2138872808326</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>343.0950860824988</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>57.74822800113516</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296117</v>
+        <v>522.129651981705</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>479.7106927671848</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>60.64815263782013</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>267.9956786389378</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686864</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>418.4946367192911</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
